--- a/biology/Botanique/Forêt_guyanaise/Forêt_guyanaise.xlsx
+++ b/biology/Botanique/Forêt_guyanaise/Forêt_guyanaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_guyanaise</t>
+          <t>Forêt_guyanaise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt guyanaise est un important massif forestier français, occupant 8 millions d'hectares. Principalement domanial, il couvre l'essentiel de la Guyane, département français le plus boisé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_guyanaise</t>
+          <t>Forêt_guyanaise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Superficie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec environ 8 millions d'hectares[1], soit le tiers du couvert forestier français, 96 % du territoire guyanais étant couvert d'une forêt équatoriale qui reste parmi les plus riches et les moins écologiquement fragmentées du monde, il constitue le plus grand massif forestier ainsi que le seul grand massif tropical de l'Union européenne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec environ 8 millions d'hectares, soit le tiers du couvert forestier français, 96 % du territoire guyanais étant couvert d'une forêt équatoriale qui reste parmi les plus riches et les moins écologiquement fragmentées du monde, il constitue le plus grand massif forestier ainsi que le seul grand massif tropical de l'Union européenne.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_guyanaise</t>
+          <t>Forêt_guyanaise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt guyanaise est une forêt tropicale humide. Il s'agit aussi pour l'essentiel de sa surface d'une forêt primaire.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_guyanaise</t>
+          <t>Forêt_guyanaise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exploitation forestière
-Seule la partie côtière fait l'objet d'une exploitation forestière industrielle. Environ 60 000 m3 de bois d'œuvre ont été récoltés chaque année dans les années 2000, ce qui représente une partie infime de la production de bois de la forêt.
+          <t>Exploitation forestière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seule la partie côtière fait l'objet d'une exploitation forestière industrielle. Environ 60 000 m3 de bois d'œuvre ont été récoltés chaque année dans les années 2000, ce qui représente une partie infime de la production de bois de la forêt.
 L'exploitation, via la création de routes forestières, a un impact sur l'accessibilité de la forêts, aux chasseurs ou aux orpailleurs.
-Chasse
-La chasse guyanaise n'est soumise à aucune restriction (type permis de chasse). Il y est possible de chasser aussi bien le jour que la nuit. Il existe néanmoins des quotas de chasse pour certaines espèces ainsi que des zones où la chasse est interdite à la suite de décrets préfectoraux et municipaux (Base spatiale, barrage de Petit-Saut, etc.).
-Extraction minière
-Réserve foncière
-Entre 1500 et 2000 hectares ont été défrichés légalement chaque année dans les années 2000[réf. nécessaire]. Il s'agit de l'extension de l'agriculture et de l'urbanisation.
 </t>
         </is>
       </c>
@@ -594,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_guyanaise</t>
+          <t>Forêt_guyanaise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +625,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Enjeux économiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chasse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chasse guyanaise n'est soumise à aucune restriction (type permis de chasse). Il y est possible de chasser aussi bien le jour que la nuit. Il existe néanmoins des quotas de chasse pour certaines espèces ainsi que des zones où la chasse est interdite à la suite de décrets préfectoraux et municipaux (Base spatiale, barrage de Petit-Saut, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_guyanaise</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_guyanaise</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Enjeux économiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réserve foncière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1500 et 2000 hectares ont été défrichés légalement chaque année dans les années 2000[réf. nécessaire]. Il s'agit de l'extension de l'agriculture et de l'urbanisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_guyanaise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_guyanaise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
